--- a/tspi/ciclo-4/plan4-20105627.xlsx
+++ b/tspi/ciclo-4/plan4-20105627.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>El equipo estimó el tamaño y el tiempo de producción de los elementos a producir en el ciclo #4. El equipo definió actualizó el diseño conceptual del proyecto y completó la forma STRAT. El equipo actualizó el documento los riesgos y problemas.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado los productos especificados. El equipo ha acumulado toda la información y ha completado todas las formas requeridas.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado un ciclo preeviamente.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado un ciclo preeviamente. Cada miembro del equipo ha leído el capítulo correspondiente a su rol.</t>
+  </si>
+  <si>
+    <t>Se ha implementado la funcionalidad #1 del producto.</t>
   </si>
 </sst>
 </file>
@@ -659,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -719,7 +731,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>30</v>
@@ -1756,7 +1768,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>31</v>
@@ -2793,7 +2805,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>26</v>
@@ -3829,9 +3841,7 @@
       <c r="B5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>27</v>
-      </c>
+      <c r="C5" s="30"/>
       <c r="D5" s="30" t="s">
         <v>27</v>
       </c>
@@ -4866,9 +4876,7 @@
       <c r="B6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="C6" s="30"/>
       <c r="D6" s="30" t="s">
         <v>22</v>
       </c>
@@ -4902,7 +4910,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>23</v>

--- a/tspi/ciclo-4/plan4-20105627.xlsx
+++ b/tspi/ciclo-4/plan4-20105627.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuaw_000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuaw_000\Desktop\Github\PPR\tspi\ciclo-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -615,11 +615,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.3984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.296875" style="11" customWidth="1"/>
     <col min="2" max="2" width="24.296875" style="12" customWidth="1"/>
     <col min="3" max="4" width="34.09765625" style="12" customWidth="1"/>
     <col min="5" max="6" width="11.59765625" style="11" customWidth="1"/>
@@ -890,7 +892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -920,18 +924,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -939,47 +943,38 @@
         <v>72</v>
       </c>
       <c r="B4" s="4">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="4">
         <v>72</v>
       </c>
       <c r="B5" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>72</v>
+      </c>
+      <c r="B6" s="4">
         <v>1.0333000000000001</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C6" s="15">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1025,7 +1020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1172,11 +1169,30 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="26"/>
+      <c r="A6" s="25">
+        <v>41954</v>
+      </c>
+      <c r="B6" s="26">
+        <v>8</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>60</v>
+      </c>
+      <c r="G6" s="4">
+        <v>63</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>

--- a/tspi/ciclo-4/plan4-20105627.xlsx
+++ b/tspi/ciclo-4/plan4-20105627.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuaw_000\Desktop\Github\PPR\tspi\ciclo-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecvasro\workspace\github\ppr\tspi\ciclo-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -615,23 +615,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.296875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.296875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="34.09765625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="11.59765625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="1.8984375" style="11" customWidth="1"/>
-    <col min="8" max="12" width="11.59765625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="12" customWidth="1"/>
+    <col min="3" max="4" width="34.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="11.625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="1.875" style="11" customWidth="1"/>
+    <col min="8" max="12" width="11.625" style="11" customWidth="1"/>
     <col min="13" max="256" width="8.5" style="11" customWidth="1"/>
-    <col min="257" max="1024" width="8.59765625" customWidth="1"/>
+    <col min="257" max="1024" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>62</v>
       </c>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>63</v>
       </c>
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>71</v>
       </c>
@@ -774,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>72</v>
       </c>
@@ -807,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>74</v>
       </c>
@@ -840,7 +840,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>78</v>
       </c>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H8" s="9"/>
     </row>
   </sheetData>
@@ -892,19 +892,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="13" customWidth="1"/>
-    <col min="2" max="3" width="9.69921875" style="13" customWidth="1"/>
-    <col min="4" max="256" width="8.796875" style="13" customWidth="1"/>
-    <col min="257" max="1024" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="13" customWidth="1"/>
+    <col min="2" max="3" width="9.75" style="13" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="13" customWidth="1"/>
+    <col min="257" max="1024" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,9 +915,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="4">
         <f>SUMIF(logt!G:G,task!A2,logt!F:F)/60</f>
@@ -927,81 +927,71 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>63</v>
       </c>
       <c r="B3" s="4">
+        <f>SUMIF(logt!G:G,task!A3,logt!F:F)/60</f>
         <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>72</v>
       </c>
       <c r="B4" s="4">
-        <v>0.5</v>
+        <f>SUMIF(logt!G:G,task!A4,logt!F:F)/60</f>
+        <v>5.0333333333333332</v>
       </c>
       <c r="C4" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>72</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>72</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1.0333000000000001</v>
-      </c>
-      <c r="C6" s="15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1021,23 +1011,23 @@
   <dimension ref="A1:IV37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" style="4" customWidth="1"/>
-    <col min="3" max="4" width="9.69921875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9.69921875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="4.59765625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="34.09765625" style="12" customWidth="1"/>
-    <col min="9" max="256" width="8.796875" style="13" customWidth="1"/>
-    <col min="257" max="1024" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="4" customWidth="1"/>
+    <col min="3" max="4" width="9.75" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="19" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="34.125" style="12" customWidth="1"/>
+    <col min="9" max="256" width="8.75" style="13" customWidth="1"/>
+    <col min="257" max="1024" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1063,7 +1053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>41956</v>
       </c>
@@ -1084,13 +1074,13 @@
         <v>60</v>
       </c>
       <c r="G2" s="4">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>41956</v>
       </c>
@@ -1116,7 +1106,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>41957</v>
       </c>
@@ -1142,7 +1132,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>41957</v>
       </c>
@@ -1168,7 +1158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>41954</v>
       </c>
@@ -1194,7 +1184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
@@ -1202,21 +1192,21 @@
       <c r="E7" s="26"/>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
@@ -1224,7 +1214,7 @@
       <c r="E10" s="26"/>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27"/>
@@ -1233,7 +1223,7 @@
       <c r="F11" s="30"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27"/>
@@ -1242,7 +1232,7 @@
       <c r="F12" s="30"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
@@ -1250,7 +1240,7 @@
       <c r="E13" s="26"/>
       <c r="F13" s="30"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
@@ -1258,7 +1248,7 @@
       <c r="E14" s="26"/>
       <c r="F14" s="30"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="27"/>
@@ -1267,7 +1257,7 @@
       <c r="F15" s="30"/>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
@@ -1276,7 +1266,7 @@
       <c r="F16" s="30"/>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="25"/>
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
@@ -1284,13 +1274,13 @@
       <c r="E17" s="26"/>
       <c r="F17" s="30"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F19" s="30"/>
     </row>
-    <row r="21" spans="1:8" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="15"/>
       <c r="C21" s="23"/>
@@ -1300,7 +1290,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
@@ -1308,7 +1298,7 @@
       <c r="E22" s="26"/>
       <c r="F22" s="30"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="26"/>
       <c r="C23" s="27"/>
@@ -1316,7 +1306,7 @@
       <c r="E23" s="26"/>
       <c r="F23" s="30"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="25"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
@@ -1324,7 +1314,7 @@
       <c r="E24" s="26"/>
       <c r="F24" s="30"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="27"/>
@@ -1332,7 +1322,7 @@
       <c r="E25" s="26"/>
       <c r="F25" s="30"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
@@ -1340,7 +1330,7 @@
       <c r="E26" s="26"/>
       <c r="F26" s="30"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
@@ -1348,7 +1338,7 @@
       <c r="E27" s="26"/>
       <c r="F27" s="30"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
@@ -1356,7 +1346,7 @@
       <c r="E28" s="26"/>
       <c r="F28" s="30"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="25"/>
       <c r="B29" s="26"/>
       <c r="C29" s="27"/>
@@ -1364,7 +1354,7 @@
       <c r="E29" s="26"/>
       <c r="F29" s="30"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="25"/>
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
@@ -1372,7 +1362,7 @@
       <c r="E30" s="26"/>
       <c r="F30" s="30"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="25"/>
       <c r="B31" s="26"/>
       <c r="C31" s="27"/>
@@ -1380,7 +1370,7 @@
       <c r="E31" s="26"/>
       <c r="F31" s="30"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
@@ -1388,7 +1378,7 @@
       <c r="E32" s="26"/>
       <c r="F32" s="30"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
@@ -1396,7 +1386,7 @@
       <c r="E33" s="26"/>
       <c r="F33" s="30"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="25"/>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
@@ -1404,7 +1394,7 @@
       <c r="E34" s="26"/>
       <c r="F34" s="30"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="25"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -1412,7 +1402,7 @@
       <c r="E35" s="26"/>
       <c r="F35" s="30"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="27"/>
@@ -1420,7 +1410,7 @@
       <c r="E36" s="26"/>
       <c r="F36" s="30"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="25"/>
       <c r="B37" s="26"/>
       <c r="C37" s="27"/>
